--- a/data/iss144_ssurgo.xlsx
+++ b/data/iss144_ssurgo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/cwainright_nps_gov/Documents/Documents/data_projects/2023/20230322_iss144_ssurgo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{88E110EB-9B0C-43C0-8A5D-F14A8B44AFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4269702-7946-4B62-BE9B-54AB9118EEA7}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{88E110EB-9B0C-43C0-8A5D-F14A8B44AFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658512FC-8BD1-4AA9-B4F1-19F05B75D822}"/>
   <bookViews>
-    <workbookView xWindow="-27195" yWindow="8865" windowWidth="17280" windowHeight="9000" xr2:uid="{F072699C-F85C-4263-917D-57234F441453}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F072699C-F85C-4263-917D-57234F441453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,10 +435,13 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.68359375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
